--- a/Team-Data/2013-14/3-23-2013-14.xlsx
+++ b/Team-Data/2013-14/3-23-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.456</v>
+        <v>0.463</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,22 +751,22 @@
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
         <v>21.6</v>
@@ -717,13 +784,13 @@
         <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.2</v>
@@ -738,28 +805,28 @@
         <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
         <v>18</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -783,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -795,16 +862,16 @@
         <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -935,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -947,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
@@ -977,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV3" t="n">
         <v>21</v>
@@ -989,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.544</v>
+        <v>0.537</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,28 +1115,28 @@
         <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="N4" t="n">
         <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
         <v>8.800000000000001</v>
@@ -1078,7 +1145,7 @@
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
@@ -1093,22 +1160,22 @@
         <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1120,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1135,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
@@ -1153,13 +1220,13 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1523,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
         <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>0.38</v>
+        <v>0.371</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>85</v>
       </c>
       <c r="K7" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1606,25 +1673,25 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
         <v>0.749</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U7" t="n">
         <v>20.7</v>
@@ -1639,22 +1706,22 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
         <v>20.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1666,13 +1733,13 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1687,16 +1754,16 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP7" t="n">
         <v>18</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1705,13 +1772,13 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1758,55 +1825,55 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.592</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I8" t="n">
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>8.6</v>
       </c>
       <c r="M8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
         <v>23.6</v>
@@ -1815,19 +1882,19 @@
         <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB8" t="n">
         <v>104.6</v>
@@ -1836,19 +1903,19 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1863,16 +1930,16 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1890,22 +1957,22 @@
         <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.457</v>
+        <v>0.449</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1964,7 +2031,7 @@
         <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
         <v>23.4</v>
@@ -1973,13 +2040,13 @@
         <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
@@ -1988,7 +2055,7 @@
         <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.3</v>
@@ -1997,7 +2064,7 @@
         <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.6</v>
@@ -2015,10 +2082,10 @@
         <v>103.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2027,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2060,22 +2127,22 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2251,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2588,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2597,7 +2664,7 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2800,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2961,7 +3028,7 @@
         <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2988,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,37 +3117,37 @@
         <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K15" t="n">
         <v>0.447</v>
       </c>
       <c r="L15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.382</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
         <v>23.8</v>
@@ -3101,25 +3168,25 @@
         <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
@@ -3143,19 +3210,19 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3164,28 +3231,28 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3301,19 +3368,19 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="n">
-        <v>0.186</v>
+        <v>0.188</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O18" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
@@ -3629,34 +3696,34 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
         <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3677,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
@@ -3686,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3695,13 +3762,13 @@
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.44</v>
@@ -3793,22 +3860,22 @@
         <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T19" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U19" t="n">
         <v>23.4</v>
@@ -3826,19 +3893,19 @@
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3871,19 +3938,19 @@
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW19" t="n">
         <v>6</v>
@@ -3913,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.414</v>
+        <v>0.42</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,7 +4209,7 @@
         <v>37.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K21" t="n">
         <v>0.447</v>
@@ -4151,28 +4218,28 @@
         <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P21" t="n">
         <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
@@ -4190,7 +4257,7 @@
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
@@ -4199,19 +4266,19 @@
         <v>98.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4268,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="n">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4512,7 +4579,7 @@
         <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
         <v>19.6</v>
@@ -4524,10 +4591,10 @@
         <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R23" t="n">
         <v>9.5</v>
@@ -4539,34 +4606,34 @@
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4614,13 +4681,13 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4775,7 +4842,7 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -4852,43 +4919,43 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.754</v>
@@ -4903,7 +4970,7 @@
         <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.4</v>
@@ -4918,31 +4985,31 @@
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
         <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4951,7 +5018,7 @@
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4978,16 +5045,16 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.357</v>
+        <v>0.348</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R27" t="n">
         <v>12.2</v>
@@ -5270,7 +5337,7 @@
         <v>19</v>
       </c>
       <c r="V27" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
@@ -5285,19 +5352,19 @@
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5315,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5327,7 +5394,7 @@
         <v>27</v>
       </c>
       <c r="AO27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP27" t="n">
         <v>4</v>
@@ -5339,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>20</v>
@@ -5366,10 +5433,10 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5500,10 +5567,10 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5527,13 +5594,13 @@
         <v>15</v>
       </c>
       <c r="AU28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV28" t="n">
         <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
         <v>9</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5598,10 +5665,10 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
         <v>8.4</v>
@@ -5619,7 +5686,7 @@
         <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
@@ -5631,37 +5698,37 @@
         <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V29" t="n">
         <v>14.3</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
         <v>101</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
         <v>20</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5730,10 +5797,10 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5849,7 +5916,7 @@
         <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>27</v>
@@ -5870,7 +5937,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
@@ -5885,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5894,7 +5961,7 @@
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5915,7 +5982,7 @@
         <v>29</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="n">
         <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5968,7 +6035,7 @@
         <v>0.455</v>
       </c>
       <c r="L31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M31" t="n">
         <v>21.1</v>
@@ -5980,31 +6047,31 @@
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
         <v>23.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
@@ -6019,13 +6086,13 @@
         <v>101</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -6040,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6049,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>2</v>
@@ -6058,7 +6125,7 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6076,13 +6143,13 @@
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-23-2013-14</t>
+          <t>2014-03-23</t>
         </is>
       </c>
     </row>
